--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -160,7 +160,7 @@
     <t>Assigned to the presented ADM based on baseline vs. aligned; and then based on the alignment score between the delegator and the target where aligned is the most aligned and misaligned is the least aligned (see exceptions)</t>
   </si>
   <si>
-    <t>Exceptions are noted when the presented ADM was not the most aligned or least aligned. This occurs in cases when the baseline matched the most aligned or where either the baseline or the aligned matched the least aligned. Data is from the Phase 1 server alignments</t>
+    <t>Exceptions are noted when the presented ADM was not the most aligned or least aligned. This occurs in cases when the baseline matched the most aligned or where either the baseline or the aligned matched the least aligned. Data is from the ADEPT server alignments</t>
   </si>
   <si>
     <t xml:space="preserve">Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey </t>
@@ -193,25 +193,25 @@
     <t>Phase 2 - P2E_June_2025</t>
   </si>
   <si>
-    <t>Military, civilian, emailParticipant, Online</t>
+    <t>Military, Civilian, emailParticipant, Online</t>
   </si>
   <si>
     <t>yes or no</t>
   </si>
   <si>
-    <t>Medical student, Resident, Physician, Physician's Assistant, Nurse, EMT, Paramedic, Military Medicine</t>
+    <t>Medical student, Resident, Physician, Physician's Assistant, Nurse, EMT, Paramedic, Military Medicine, or Other (User writes in)</t>
   </si>
   <si>
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search (SS)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search or Stay (SS)</t>
   </si>
   <si>
     <t>1-3</t>
   </si>
   <si>
-    <t>Baseline or Aligned</t>
+    <t>Baseline, Aligned, Comparison (Denotes the page where the participant made forced choices between previous ADMs)</t>
   </si>
   <si>
     <t>For single attribute: ADEPT-June2025-xxx-0.0 - ADEPT-June2025-xxx-1.0. For multi-attribute: ADEPT-June2025-affiliation_merit-0.0_0.0 - ADEPT-June2025-affiliation_merit-1.0_1.0</t>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -205,7 +205,7 @@
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search or Stay (SS)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS)</t>
   </si>
   <si>
     <t>1-3</t>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -205,7 +205,7 @@
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), and Affiliation Focus / Merit Focus (AF-MF)</t>
   </si>
   <si>
     <t>1-3</t>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,12 +304,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,20 +614,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="19.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="22.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="3" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="3" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="3" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="27.005" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="3" width="47.71928571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="3" width="22.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="3" width="48.86214285714286" customWidth="1" bestFit="1"/>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -190,7 +190,7 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>Phase 2 - P2E_June_2025</t>
+    <t>P2E_June_2025, P2E_July_2025, P2E_Sept_2025</t>
   </si>
   <si>
     <t>Military, Civilian, emailParticipant, Online</t>
@@ -205,7 +205,7 @@
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), and Affiliation Focus / Merit Focus (AF-MF)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Affiliation Focus / Merit Focus (AF-MF), Personal Safety / Affiliation Focus (PS-AF)</t>
   </si>
   <si>
     <t>1-3</t>
@@ -643,7 +643,7 @@
     <col min="28" max="28" style="3" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="181.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="171.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -897,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="154.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="146.25" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -190,7 +190,7 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>P2E_June_2025, P2E_July_2025, P2E_Sept_2025</t>
+    <t>P2E_June_2025, P2E_July_2025</t>
   </si>
   <si>
     <t>Military, Civilian, emailParticipant, Online</t>
@@ -205,7 +205,7 @@
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Affiliation Focus / Merit Focus (AF-MF), Personal Safety / Affiliation Focus (PS-AF)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Affiliation Focus / Merit Focus (AF-MF)</t>
   </si>
   <si>
     <t>1-3</t>
@@ -897,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="146.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="159" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH2.xlsx
@@ -190,7 +190,7 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>Phase 2 - P2E_June_2025</t>
+    <t>P2E_June_2025, P2E_July_2025</t>
   </si>
   <si>
     <t>Military, Civilian, emailParticipant, Online</t>
@@ -205,7 +205,7 @@
     <t>1-21</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), and Affiliation Focus / Merit Focus (AF-MF)</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Affiliation Focus / Merit Focus (AF-MF)</t>
   </si>
   <si>
     <t>1-3</t>
@@ -643,7 +643,7 @@
     <col min="28" max="28" style="3" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="181.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="171.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -897,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="154.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="159" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
